--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>941.0624803733267</v>
+        <v>1113.473903227833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1287.603202393315</v>
+        <v>1523.504117398004</v>
       </c>
       <c r="AC2" t="n">
-        <v>1164.716159919341</v>
+        <v>1378.103022684996</v>
       </c>
       <c r="AD2" t="n">
-        <v>941062.4803733267</v>
+        <v>1113473.903227833</v>
       </c>
       <c r="AE2" t="n">
-        <v>1287603.202393315</v>
+        <v>1523504.117398004</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.909270121632427e-07</v>
+        <v>1.140251327680076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.42447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1164716.159919341</v>
+        <v>1378103.022684996</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>666.6668146708271</v>
+        <v>804.6300176894197</v>
       </c>
       <c r="AB3" t="n">
-        <v>912.1629470967468</v>
+        <v>1100.930287973738</v>
       </c>
       <c r="AC3" t="n">
-        <v>825.1073956545694</v>
+        <v>995.8590464548877</v>
       </c>
       <c r="AD3" t="n">
-        <v>666666.8146708271</v>
+        <v>804630.0176894197</v>
       </c>
       <c r="AE3" t="n">
-        <v>912162.9470967469</v>
+        <v>1100930.287973738</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014772077727519e-06</v>
+        <v>1.462960793002547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>825107.3956545694</v>
+        <v>995859.0464548877</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>595.0249296809001</v>
+        <v>715.892078817669</v>
       </c>
       <c r="AB4" t="n">
-        <v>814.1393594366281</v>
+        <v>979.5151251678416</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.4390416237632</v>
+        <v>886.0315763799346</v>
       </c>
       <c r="AD4" t="n">
-        <v>595024.9296809001</v>
+        <v>715892.0788176691</v>
       </c>
       <c r="AE4" t="n">
-        <v>814139.3594366281</v>
+        <v>979515.1251678416</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.102862930432376e-06</v>
+        <v>1.589958240565322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>736439.0416237632</v>
+        <v>886031.5763799346</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>555.329409713895</v>
+        <v>667.4779397091597</v>
       </c>
       <c r="AB5" t="n">
-        <v>759.8261977750273</v>
+        <v>913.2727641585047</v>
       </c>
       <c r="AC5" t="n">
-        <v>687.3094518821443</v>
+        <v>826.1112933335913</v>
       </c>
       <c r="AD5" t="n">
-        <v>555329.4097138949</v>
+        <v>667477.9397091598</v>
       </c>
       <c r="AE5" t="n">
-        <v>759826.1977750272</v>
+        <v>913272.7641585048</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153910809305063e-06</v>
+        <v>1.663552150957422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.34114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>687309.4518821443</v>
+        <v>826111.2933335913</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>528.5532846067609</v>
+        <v>649.2497520343865</v>
       </c>
       <c r="AB6" t="n">
-        <v>723.1899221241772</v>
+        <v>888.3321536109955</v>
       </c>
       <c r="AC6" t="n">
-        <v>654.1696909600756</v>
+        <v>803.5509796523694</v>
       </c>
       <c r="AD6" t="n">
-        <v>528553.2846067609</v>
+        <v>649249.7520343865</v>
       </c>
       <c r="AE6" t="n">
-        <v>723189.9221241772</v>
+        <v>888332.1536109955</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17790587994115e-06</v>
+        <v>1.698144990410133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>654169.6909600756</v>
+        <v>803550.9796523694</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>511.566163496576</v>
+        <v>623.6293526372693</v>
       </c>
       <c r="AB7" t="n">
-        <v>699.9473936023303</v>
+        <v>853.2771928636101</v>
       </c>
       <c r="AC7" t="n">
-        <v>633.14539673926</v>
+        <v>771.8416151587681</v>
       </c>
       <c r="AD7" t="n">
-        <v>511566.163496576</v>
+        <v>623629.3526372693</v>
       </c>
       <c r="AE7" t="n">
-        <v>699947.3936023302</v>
+        <v>853277.1928636101</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.200173678955574e-06</v>
+        <v>1.730247683832202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.32552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>633145.3967392601</v>
+        <v>771841.6151587681</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>496.440403328138</v>
+        <v>600.0409063824909</v>
       </c>
       <c r="AB8" t="n">
-        <v>679.2516612384305</v>
+        <v>821.0024400490189</v>
       </c>
       <c r="AC8" t="n">
-        <v>614.4248360255281</v>
+        <v>742.6471194549016</v>
       </c>
       <c r="AD8" t="n">
-        <v>496440.4033281379</v>
+        <v>600040.9063824909</v>
       </c>
       <c r="AE8" t="n">
-        <v>679251.6612384305</v>
+        <v>821002.4400490189</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.214482023605303e-06</v>
+        <v>1.750875515140093e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>614424.836025528</v>
+        <v>742647.1194549015</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>484.9247701804243</v>
+        <v>597.0732106671383</v>
       </c>
       <c r="AB9" t="n">
-        <v>663.4954639318495</v>
+        <v>816.9419078457786</v>
       </c>
       <c r="AC9" t="n">
-        <v>600.1723880759254</v>
+        <v>738.9741187461457</v>
       </c>
       <c r="AD9" t="n">
-        <v>484924.7701804243</v>
+        <v>597073.2106671382</v>
       </c>
       <c r="AE9" t="n">
-        <v>663495.4639318495</v>
+        <v>816941.9078457786</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218426738525048e-06</v>
+        <v>1.756562470264128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>600172.3880759254</v>
+        <v>738974.1187461456</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>757.339428941586</v>
+        <v>908.5971198764767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1036.225218135421</v>
+        <v>1243.182663890905</v>
       </c>
       <c r="AC2" t="n">
-        <v>937.3293376678039</v>
+        <v>1124.535055266983</v>
       </c>
       <c r="AD2" t="n">
-        <v>757339.4289415859</v>
+        <v>908597.1198764767</v>
       </c>
       <c r="AE2" t="n">
-        <v>1036225.218135421</v>
+        <v>1243182.663890905</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.132917030959358e-07</v>
+        <v>1.33702469625492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.42708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>937329.3376678039</v>
+        <v>1124535.055266983</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.6900534032562</v>
+        <v>691.4487318272779</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.9480404852429</v>
+        <v>946.0706594512267</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.0337011828246</v>
+        <v>855.7790035317109</v>
       </c>
       <c r="AD3" t="n">
-        <v>573690.0534032562</v>
+        <v>691448.7318272779</v>
       </c>
       <c r="AE3" t="n">
-        <v>784948.040485243</v>
+        <v>946070.6594512267</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11875396419747e-06</v>
+        <v>1.63781371723245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>710033.7011828247</v>
+        <v>855779.0035317109</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>513.8968943148602</v>
+        <v>623.2381491838789</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.1364023324934</v>
+        <v>852.7419310400032</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.0300509520182</v>
+        <v>771.3574379723617</v>
       </c>
       <c r="AD4" t="n">
-        <v>513896.8943148602</v>
+        <v>623238.1491838789</v>
       </c>
       <c r="AE4" t="n">
-        <v>703136.4023324933</v>
+        <v>852741.9310400032</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19911339596923e-06</v>
+        <v>1.755456902308631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>636030.0509520182</v>
+        <v>771357.4379723617</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.9489495298107</v>
+        <v>589.2048635442578</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.6873265999656</v>
+        <v>806.1760881852778</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.0140098157157</v>
+        <v>729.2357738041202</v>
       </c>
       <c r="AD5" t="n">
-        <v>479948.9495298107</v>
+        <v>589204.8635442578</v>
       </c>
       <c r="AE5" t="n">
-        <v>656687.3265999656</v>
+        <v>806176.0881852778</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.239824334060331e-06</v>
+        <v>1.815056184171143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>594014.0098157157</v>
+        <v>729235.7738041201</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.9559624673012</v>
+        <v>562.2971278277689</v>
       </c>
       <c r="AB6" t="n">
-        <v>619.7543308544966</v>
+        <v>769.3597370924582</v>
       </c>
       <c r="AC6" t="n">
-        <v>560.6058473484092</v>
+        <v>695.9331235875259</v>
       </c>
       <c r="AD6" t="n">
-        <v>452955.9624673012</v>
+        <v>562297.1278277689</v>
       </c>
       <c r="AE6" t="n">
-        <v>619754.3308544967</v>
+        <v>769359.7370924582</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.263053232306856e-06</v>
+        <v>1.849062417357226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>560605.8473484091</v>
+        <v>695933.1235875259</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.3240791518569</v>
+        <v>560.6652445123246</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.5215161086951</v>
+        <v>767.1269223466564</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.5861293081716</v>
+        <v>693.9134055472884</v>
       </c>
       <c r="AD7" t="n">
-        <v>451324.0791518569</v>
+        <v>560665.2445123247</v>
       </c>
       <c r="AE7" t="n">
-        <v>617521.5161086951</v>
+        <v>767126.9223466564</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.265757636260713e-06</v>
+        <v>1.853021563008828e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>558586.1293081716</v>
+        <v>693913.4055472885</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.152131945082</v>
+        <v>525.8088333698684</v>
       </c>
       <c r="AB2" t="n">
-        <v>570.765950380473</v>
+        <v>719.4348428652172</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.2928491512025</v>
+        <v>650.7729911953038</v>
       </c>
       <c r="AD2" t="n">
-        <v>417152.131945082</v>
+        <v>525808.8333698683</v>
       </c>
       <c r="AE2" t="n">
-        <v>570765.9503804729</v>
+        <v>719434.8428652172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302820141414809e-06</v>
+        <v>2.015623569656584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>516292.8491512025</v>
+        <v>650772.9911953039</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.1777110314115</v>
+        <v>476.9818723759374</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.7029400225168</v>
+        <v>652.6276407398303</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.5804138168805</v>
+        <v>590.3417746762668</v>
       </c>
       <c r="AD3" t="n">
-        <v>376177.7110314115</v>
+        <v>476981.8723759374</v>
       </c>
       <c r="AE3" t="n">
-        <v>514702.9400225168</v>
+        <v>652627.6407398303</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391411803255272e-06</v>
+        <v>2.152685805650852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>465580.4138168805</v>
+        <v>590341.7746762668</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.0682829521227</v>
+        <v>648.219673427699</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.5263214635382</v>
+        <v>886.9227546174648</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.5694234151186</v>
+        <v>802.2760917206774</v>
       </c>
       <c r="AD2" t="n">
-        <v>528068.2829521226</v>
+        <v>648219.673427699</v>
       </c>
       <c r="AE2" t="n">
-        <v>722526.3214635382</v>
+        <v>886922.7546174647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147591489740656e-06</v>
+        <v>1.734348096677472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>653569.4234151186</v>
+        <v>802276.0917206774</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.3496568931088</v>
+        <v>528.6287085457884</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.6139215467538</v>
+        <v>723.2931204850241</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.2009437710879</v>
+        <v>654.2630402142031</v>
       </c>
       <c r="AD3" t="n">
-        <v>424349.6568931089</v>
+        <v>528628.7085457884</v>
       </c>
       <c r="AE3" t="n">
-        <v>580613.9215467537</v>
+        <v>723293.1204850242</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312122306187156e-06</v>
+        <v>1.983002527195482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>525200.9437710878</v>
+        <v>654263.0402142031</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.3131745112806</v>
+        <v>501.5068853093885</v>
       </c>
       <c r="AB4" t="n">
-        <v>543.6214135865149</v>
+        <v>686.1838454025875</v>
       </c>
       <c r="AC4" t="n">
-        <v>491.738948851263</v>
+        <v>620.6954222624395</v>
       </c>
       <c r="AD4" t="n">
-        <v>397313.1745112806</v>
+        <v>501506.8853093885</v>
       </c>
       <c r="AE4" t="n">
-        <v>543621.4135865149</v>
+        <v>686183.8454025876</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349291887468035e-06</v>
+        <v>2.039176691194694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>491738.948851263</v>
+        <v>620695.4222624395</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.0373063373823</v>
+        <v>459.6899875482152</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.4094615544278</v>
+        <v>628.9681210544226</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.1781024166216</v>
+        <v>568.9402863432899</v>
       </c>
       <c r="AD2" t="n">
-        <v>354037.3063373823</v>
+        <v>459689.9875482152</v>
       </c>
       <c r="AE2" t="n">
-        <v>484409.4615544277</v>
+        <v>628968.1210544226</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410650490926034e-06</v>
+        <v>2.229516159479393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>438178.1024166216</v>
+        <v>568940.2863432899</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.6291735085275</v>
+        <v>451.8937247913626</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.8510362124389</v>
+        <v>618.3009304036584</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.6729724055174</v>
+        <v>559.2911573967385</v>
       </c>
       <c r="AD3" t="n">
-        <v>353629.1735085275</v>
+        <v>451893.7247913625</v>
       </c>
       <c r="AE3" t="n">
-        <v>483851.036212439</v>
+        <v>618300.9304036584</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.417198640397898e-06</v>
+        <v>2.239865431078642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>437672.9724055174</v>
+        <v>559291.1573967385</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>800.3493509286609</v>
+        <v>952.7140464719947</v>
       </c>
       <c r="AB2" t="n">
-        <v>1095.073290861979</v>
+        <v>1303.545389160331</v>
       </c>
       <c r="AC2" t="n">
-        <v>990.5610329271277</v>
+        <v>1179.136846756312</v>
       </c>
       <c r="AD2" t="n">
-        <v>800349.3509286609</v>
+        <v>952714.0464719947</v>
       </c>
       <c r="AE2" t="n">
-        <v>1095073.290861979</v>
+        <v>1303545.389160331</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.815409842608139e-07</v>
+        <v>1.285186514064728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>990561.0329271277</v>
+        <v>1179136.846756312</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>593.3612949965726</v>
+        <v>720.3886939286061</v>
       </c>
       <c r="AB3" t="n">
-        <v>811.863101067149</v>
+        <v>985.6675923392835</v>
       </c>
       <c r="AC3" t="n">
-        <v>734.3800261583184</v>
+        <v>891.5968607195761</v>
       </c>
       <c r="AD3" t="n">
-        <v>593361.2949965727</v>
+        <v>720388.6939286061</v>
       </c>
       <c r="AE3" t="n">
-        <v>811863.1010671491</v>
+        <v>985667.5923392834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093173994516321e-06</v>
+        <v>1.593723377996661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.50260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>734380.0261583184</v>
+        <v>891596.860719576</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.2990735763893</v>
+        <v>651.8522898559825</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.6833199618557</v>
+        <v>891.8930606743679</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.043368021667</v>
+        <v>806.7720387433782</v>
       </c>
       <c r="AD4" t="n">
-        <v>533299.0735763893</v>
+        <v>651852.2898559824</v>
       </c>
       <c r="AE4" t="n">
-        <v>729683.3199618557</v>
+        <v>891893.0606743679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.17087326908661e-06</v>
+        <v>1.70700008505082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>660043.368021667</v>
+        <v>806772.0387433781</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.63477184051</v>
+        <v>608.7991463222343</v>
       </c>
       <c r="AB5" t="n">
-        <v>682.2540930457644</v>
+        <v>832.9858503208521</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.1407199551094</v>
+        <v>753.4868498692128</v>
       </c>
       <c r="AD5" t="n">
-        <v>498634.77184051</v>
+        <v>608799.1463222343</v>
       </c>
       <c r="AE5" t="n">
-        <v>682254.0930457644</v>
+        <v>832985.8503208521</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.214329346271594e-06</v>
+        <v>1.770354104148557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>617140.7199551094</v>
+        <v>753486.8498692128</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>477.7009698205061</v>
+        <v>579.3912511583411</v>
       </c>
       <c r="AB6" t="n">
-        <v>653.6115415878296</v>
+        <v>792.7486707728438</v>
       </c>
       <c r="AC6" t="n">
-        <v>591.2317734082466</v>
+        <v>717.0898502640302</v>
       </c>
       <c r="AD6" t="n">
-        <v>477700.9698205061</v>
+        <v>579391.2511583411</v>
       </c>
       <c r="AE6" t="n">
-        <v>653611.5415878296</v>
+        <v>792748.6707728438</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242183351691926e-06</v>
+        <v>1.810962076742041e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>591231.7734082466</v>
+        <v>717089.8502640303</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.2942802353119</v>
+        <v>570.3733138624644</v>
       </c>
       <c r="AB7" t="n">
-        <v>629.7949409684202</v>
+        <v>780.4099311213103</v>
       </c>
       <c r="AC7" t="n">
-        <v>569.6881957251446</v>
+        <v>705.9287026073092</v>
       </c>
       <c r="AD7" t="n">
-        <v>460294.2802353119</v>
+        <v>570373.3138624644</v>
       </c>
       <c r="AE7" t="n">
-        <v>629794.9409684201</v>
+        <v>780409.9311213102</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.251874822650031e-06</v>
+        <v>1.825091139371217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>569688.1957251446</v>
+        <v>705928.7026073092</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.0749928219228</v>
+        <v>443.6494472294715</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.8833170469816</v>
+        <v>607.0207461316227</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.5611197709384</v>
+        <v>549.087538079788</v>
       </c>
       <c r="AD2" t="n">
-        <v>347074.9928219228</v>
+        <v>443649.4472294715</v>
       </c>
       <c r="AE2" t="n">
-        <v>474883.3170469816</v>
+        <v>607020.7461316227</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421325163339217e-06</v>
+        <v>2.277296777649937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.23697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>429561.1197709384</v>
+        <v>549087.538079788</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>635.3036857006393</v>
+        <v>775.0976219650354</v>
       </c>
       <c r="AB2" t="n">
-        <v>869.2505303961383</v>
+        <v>1060.522761266289</v>
       </c>
       <c r="AC2" t="n">
-        <v>786.290479775912</v>
+        <v>959.3079573840773</v>
       </c>
       <c r="AD2" t="n">
-        <v>635303.6857006394</v>
+        <v>775097.6219650353</v>
       </c>
       <c r="AE2" t="n">
-        <v>869250.5303961383</v>
+        <v>1060522.761266289</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019788039415899e-06</v>
+        <v>1.514225332840701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>786290.479775912</v>
+        <v>959307.9573840774</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.8379114438069</v>
+        <v>611.017550096856</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.4273052622227</v>
+        <v>836.0211682343568</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.6791554266987</v>
+        <v>756.2324813011481</v>
       </c>
       <c r="AD3" t="n">
-        <v>495837.911443807</v>
+        <v>611017.550096856</v>
       </c>
       <c r="AE3" t="n">
-        <v>678427.3052622228</v>
+        <v>836021.1682343568</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20764438558041e-06</v>
+        <v>1.793162550480673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>613679.1554266987</v>
+        <v>756232.4813011482</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.4023131705929</v>
+        <v>555.2634876556485</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.5238269939116</v>
+        <v>759.7360003066585</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.9699740317114</v>
+        <v>687.2278627335636</v>
       </c>
       <c r="AD4" t="n">
-        <v>448402.3131705929</v>
+        <v>555263.4876556485</v>
       </c>
       <c r="AE4" t="n">
-        <v>613523.8269939116</v>
+        <v>759736.0003066586</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28494138829967e-06</v>
+        <v>1.907936479126865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>554969.9740317115</v>
+        <v>687227.8627335636</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.0516664224905</v>
+        <v>531.9980922535665</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.5744419553282</v>
+        <v>727.9032599207243</v>
       </c>
       <c r="AC5" t="n">
-        <v>526.0697934599668</v>
+        <v>658.4331944125313</v>
       </c>
       <c r="AD5" t="n">
-        <v>425051.6664224905</v>
+        <v>531998.0922535665</v>
       </c>
       <c r="AE5" t="n">
-        <v>581574.4419553282</v>
+        <v>727903.2599207243</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.304545520305714e-06</v>
+        <v>1.937045541171667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.83072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>526069.7934599668</v>
+        <v>658433.1944125313</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>426.2346255798804</v>
+        <v>533.1810514109565</v>
       </c>
       <c r="AB6" t="n">
-        <v>583.1930188629439</v>
+        <v>729.5218368283399</v>
       </c>
       <c r="AC6" t="n">
-        <v>527.5338956592066</v>
+        <v>659.8972966117713</v>
       </c>
       <c r="AD6" t="n">
-        <v>426234.6255798804</v>
+        <v>533181.0514109564</v>
       </c>
       <c r="AE6" t="n">
-        <v>583193.0188629439</v>
+        <v>729521.83682834</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304570398645823e-06</v>
+        <v>1.937082481605734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.83072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>527533.8956592066</v>
+        <v>659897.2966117712</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.901597268003</v>
+        <v>856.8256091354046</v>
       </c>
       <c r="AB2" t="n">
-        <v>978.1599046146267</v>
+        <v>1172.346598897113</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.8056961742545</v>
+        <v>1060.459484897157</v>
       </c>
       <c r="AD2" t="n">
-        <v>714901.597268003</v>
+        <v>856825.6091354047</v>
       </c>
       <c r="AE2" t="n">
-        <v>978159.9046146268</v>
+        <v>1172346.598897113</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.480242675028588e-07</v>
+        <v>1.394015154193733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>884805.6961742545</v>
+        <v>1060459.484897157</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.9834065870078</v>
+        <v>662.0024922900617</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.6703398633758</v>
+        <v>905.781015440003</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.5046091817095</v>
+        <v>819.334546598048</v>
       </c>
       <c r="AD3" t="n">
-        <v>544983.4065870078</v>
+        <v>662002.4922900617</v>
       </c>
       <c r="AE3" t="n">
-        <v>745670.3398633759</v>
+        <v>905781.015440003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146711550348066e-06</v>
+        <v>1.686173374954638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>674504.6091817095</v>
+        <v>819334.5465980479</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.8291638433448</v>
+        <v>604.6775678372553</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.4693834742625</v>
+        <v>827.3465248064944</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.7670423146416</v>
+        <v>748.3857336671022</v>
       </c>
       <c r="AD4" t="n">
-        <v>487829.1638433448</v>
+        <v>604677.5678372553</v>
       </c>
       <c r="AE4" t="n">
-        <v>667469.3834742624</v>
+        <v>827346.5248064944</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223958513829413e-06</v>
+        <v>1.799760591442346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>603767.0423146415</v>
+        <v>748385.7336671022</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.905436580096</v>
+        <v>570.3954239609109</v>
       </c>
       <c r="AB5" t="n">
-        <v>631.9993961585552</v>
+        <v>780.4401831334334</v>
       </c>
       <c r="AC5" t="n">
-        <v>571.6822608059055</v>
+        <v>705.9560674098542</v>
       </c>
       <c r="AD5" t="n">
-        <v>461905.436580096</v>
+        <v>570395.4239609109</v>
       </c>
       <c r="AE5" t="n">
-        <v>631999.3961585552</v>
+        <v>780440.1831334333</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265129268427077e-06</v>
+        <v>1.860299817901083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>571682.2608059054</v>
+        <v>705956.0674098541</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>442.2924052757355</v>
+        <v>550.867644002571</v>
       </c>
       <c r="AB6" t="n">
-        <v>605.1639814620554</v>
+        <v>753.7214130895829</v>
       </c>
       <c r="AC6" t="n">
-        <v>547.4079804242984</v>
+        <v>681.7872992789595</v>
       </c>
       <c r="AD6" t="n">
-        <v>442292.4052757355</v>
+        <v>550867.644002571</v>
       </c>
       <c r="AE6" t="n">
-        <v>605163.9814620554</v>
+        <v>753721.4130895829</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.275562118023169e-06</v>
+        <v>1.875640723125677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>547407.9804242984</v>
+        <v>681787.2992789595</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.470769055423</v>
+        <v>1054.358085813085</v>
       </c>
       <c r="AB2" t="n">
-        <v>1219.749635136265</v>
+        <v>1442.619248005346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.338441888224</v>
+        <v>1304.937691704546</v>
       </c>
       <c r="AD2" t="n">
-        <v>891470.769055423</v>
+        <v>1054358.085813085</v>
       </c>
       <c r="AE2" t="n">
-        <v>1219749.635136265</v>
+        <v>1442619.248005346</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206131156171658e-07</v>
+        <v>1.187240494283986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.33072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103338.441888224</v>
+        <v>1304937.691704546</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.3942252046292</v>
+        <v>773.9535611289746</v>
       </c>
       <c r="AB3" t="n">
-        <v>883.0568517086822</v>
+        <v>1058.957406757988</v>
       </c>
       <c r="AC3" t="n">
-        <v>798.7791451596802</v>
+        <v>957.8919981130601</v>
       </c>
       <c r="AD3" t="n">
-        <v>645394.2252046291</v>
+        <v>773953.5611289745</v>
       </c>
       <c r="AE3" t="n">
-        <v>883056.8517086821</v>
+        <v>1058957.406757988</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039024479579381e-06</v>
+        <v>1.503232050807819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>798779.1451596802</v>
+        <v>957891.9981130601</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>576.8679689830287</v>
+        <v>696.8453096990451</v>
       </c>
       <c r="AB4" t="n">
-        <v>789.2962047812283</v>
+        <v>953.454495375591</v>
       </c>
       <c r="AC4" t="n">
-        <v>713.9668827810881</v>
+        <v>862.4581365187328</v>
       </c>
       <c r="AD4" t="n">
-        <v>576867.9689830288</v>
+        <v>696845.309699045</v>
       </c>
       <c r="AE4" t="n">
-        <v>789296.2047812283</v>
+        <v>953454.495375591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.125019689671151e-06</v>
+        <v>1.62764755647351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>713966.8827810881</v>
+        <v>862458.1365187328</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.3997665525787</v>
+        <v>645.3770177600439</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.8751395990478</v>
+        <v>883.0333077238619</v>
       </c>
       <c r="AC5" t="n">
-        <v>650.266705223309</v>
+        <v>798.7578481797271</v>
       </c>
       <c r="AD5" t="n">
-        <v>525399.7665525788</v>
+        <v>645377.017760044</v>
       </c>
       <c r="AE5" t="n">
-        <v>718875.1395990477</v>
+        <v>883033.3077238619</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.182357672432749e-06</v>
+        <v>1.710602573520648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>650266.705223309</v>
+        <v>798757.8481797271</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>511.1707592205099</v>
+        <v>622.7366969287891</v>
       </c>
       <c r="AB6" t="n">
-        <v>699.4063840278112</v>
+        <v>852.0558219420773</v>
       </c>
       <c r="AC6" t="n">
-        <v>632.6560203592212</v>
+        <v>770.7368101637815</v>
       </c>
       <c r="AD6" t="n">
-        <v>511170.7592205099</v>
+        <v>622736.6969287891</v>
       </c>
       <c r="AE6" t="n">
-        <v>699406.3840278112</v>
+        <v>852055.8219420773</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200709591412662e-06</v>
+        <v>1.737153625345337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>632656.0203592211</v>
+        <v>770736.8101637815</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>494.3547130536638</v>
+        <v>605.7500585613509</v>
       </c>
       <c r="AB7" t="n">
-        <v>676.3979277907341</v>
+        <v>828.8139539301533</v>
       </c>
       <c r="AC7" t="n">
-        <v>611.8434588928397</v>
+        <v>749.7131134147489</v>
       </c>
       <c r="AD7" t="n">
-        <v>494354.7130536638</v>
+        <v>605750.0585613509</v>
       </c>
       <c r="AE7" t="n">
-        <v>676397.9277907341</v>
+        <v>828813.9539301533</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.21852036406368e-06</v>
+        <v>1.762921761539298e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.14322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>611843.4588928397</v>
+        <v>749713.1134147489</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>477.4553534359837</v>
+        <v>588.9359502896915</v>
       </c>
       <c r="AB8" t="n">
-        <v>653.2754784146961</v>
+        <v>805.8081492067645</v>
       </c>
       <c r="AC8" t="n">
-        <v>590.9277836326893</v>
+        <v>728.9029504053108</v>
       </c>
       <c r="AD8" t="n">
-        <v>477455.3534359838</v>
+        <v>588935.9502896914</v>
       </c>
       <c r="AE8" t="n">
-        <v>653275.4784146961</v>
+        <v>805808.1492067645</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.226849311908409e-06</v>
+        <v>1.774971854290503e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>590927.7836326893</v>
+        <v>728902.9504053107</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>478.9595531871255</v>
+        <v>590.4401500408331</v>
       </c>
       <c r="AB9" t="n">
-        <v>655.3335908748177</v>
+        <v>807.8662616668862</v>
       </c>
       <c r="AC9" t="n">
-        <v>592.7894727281958</v>
+        <v>730.7646395008173</v>
       </c>
       <c r="AD9" t="n">
-        <v>478959.5531871255</v>
+        <v>590440.1500408332</v>
       </c>
       <c r="AE9" t="n">
-        <v>655333.5908748177</v>
+        <v>807866.2616668862</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.226566974693334e-06</v>
+        <v>1.774563376570123e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>592789.4727281958</v>
+        <v>730764.6395008173</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.4670730886393</v>
+        <v>687.8189602406027</v>
       </c>
       <c r="AB2" t="n">
-        <v>775.0652401633821</v>
+        <v>941.1042458321166</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.0941014530849</v>
+        <v>851.2865774580035</v>
       </c>
       <c r="AD2" t="n">
-        <v>566467.0730886393</v>
+        <v>687818.9602406027</v>
       </c>
       <c r="AE2" t="n">
-        <v>775065.2401633821</v>
+        <v>941104.2458321166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.101411662533319e-06</v>
+        <v>1.653972947344788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>701094.101453085</v>
+        <v>851286.5774580035</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.9461146389179</v>
+        <v>559.1167621945597</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.1631478030424</v>
+        <v>765.008220525272</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.9300333460758</v>
+        <v>691.9969096541203</v>
       </c>
       <c r="AD3" t="n">
-        <v>445946.1146389179</v>
+        <v>559116.7621945597</v>
       </c>
       <c r="AE3" t="n">
-        <v>610163.1478030424</v>
+        <v>765008.220525272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275999321550121e-06</v>
+        <v>1.916148548690675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.9765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>551930.0333460758</v>
+        <v>691996.9096541202</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.5122704919532</v>
+        <v>512.6724496689677</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.5762666596297</v>
+        <v>701.4610631492981</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.3619703328391</v>
+        <v>634.5146037891137</v>
       </c>
       <c r="AD4" t="n">
-        <v>407512.2704919532</v>
+        <v>512672.4496689677</v>
       </c>
       <c r="AE4" t="n">
-        <v>557576.2666596298</v>
+        <v>701461.0631492981</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332786763927506e-06</v>
+        <v>2.001425377179183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>504361.9703328391</v>
+        <v>634514.6037891137</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.322022443472</v>
+        <v>513.4822016204864</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.6842050034325</v>
+        <v>702.5690014931007</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.3641685961106</v>
+        <v>635.5168020523851</v>
       </c>
       <c r="AD5" t="n">
-        <v>408322.0224434719</v>
+        <v>513482.2016204864</v>
       </c>
       <c r="AE5" t="n">
-        <v>558684.2050034325</v>
+        <v>702569.0014931007</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331055905083194e-06</v>
+        <v>1.998826173083613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>505364.1685961106</v>
+        <v>635516.8020523851</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.3907235983549</v>
+        <v>564.405411487481</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.7174343311981</v>
+        <v>772.2443838065867</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.3815949845272</v>
+        <v>698.5424636678854</v>
       </c>
       <c r="AD2" t="n">
-        <v>454390.7235983549</v>
+        <v>564405.4114874811</v>
       </c>
       <c r="AE2" t="n">
-        <v>621717.4343311981</v>
+        <v>772244.3838065867</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246575869785583e-06</v>
+        <v>1.911931687518048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>562381.5949845272</v>
+        <v>698542.4636678854</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.9483373706785</v>
+        <v>480.2467307841948</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.0715420295143</v>
+        <v>657.0947640493957</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.6731352112807</v>
+        <v>594.3825620068142</v>
       </c>
       <c r="AD3" t="n">
-        <v>385948.3373706785</v>
+        <v>480246.7307841948</v>
       </c>
       <c r="AE3" t="n">
-        <v>528071.5420295142</v>
+        <v>657094.7640493957</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.378140465465176e-06</v>
+        <v>2.113718458409563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>477673.1352112807</v>
+        <v>594382.5620068142</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.2915757965332</v>
+        <v>481.5899692100494</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.9094201032655</v>
+        <v>658.9326421231469</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.3356087811512</v>
+        <v>596.0450355766848</v>
       </c>
       <c r="AD4" t="n">
-        <v>387291.5757965331</v>
+        <v>481589.9692100494</v>
       </c>
       <c r="AE4" t="n">
-        <v>529909.4201032654</v>
+        <v>658932.6421231469</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.377875321177228e-06</v>
+        <v>2.113311794219939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>479335.6087811512</v>
+        <v>596045.0355766847</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.7788171797834</v>
+        <v>486.3809470049512</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.2078411425148</v>
+        <v>665.4878693051546</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.7009875317424</v>
+        <v>601.9746410767606</v>
       </c>
       <c r="AD2" t="n">
-        <v>386778.8171797834</v>
+        <v>486380.9470049512</v>
       </c>
       <c r="AE2" t="n">
-        <v>529207.8411425148</v>
+        <v>665487.8693051547</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364869938465613e-06</v>
+        <v>2.132582356294055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>478700.9875317424</v>
+        <v>601974.6410767606</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.9662088885123</v>
+        <v>464.4829978591084</v>
       </c>
       <c r="AB3" t="n">
-        <v>499.3628681740358</v>
+        <v>635.5261292144779</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.7043768956924</v>
+        <v>574.8724074087718</v>
       </c>
       <c r="AD3" t="n">
-        <v>364966.2088885123</v>
+        <v>464482.9978591084</v>
       </c>
       <c r="AE3" t="n">
-        <v>499362.8681740359</v>
+        <v>635526.129214478</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407410697972067e-06</v>
+        <v>2.199051453890857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>451704.3768956924</v>
+        <v>574872.4074087718</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.0149060788485</v>
+        <v>441.9289001065621</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.2233948960628</v>
+        <v>604.6666176528761</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.8231270323174</v>
+        <v>546.9580843190128</v>
       </c>
       <c r="AD2" t="n">
-        <v>340014.9060788485</v>
+        <v>441928.9001065621</v>
       </c>
       <c r="AE2" t="n">
-        <v>465223.3948960628</v>
+        <v>604666.6176528761</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409753931760774e-06</v>
+        <v>2.297442336128251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>420823.1270323173</v>
+        <v>546958.0843190127</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.266819904202</v>
+        <v>814.2338049163905</v>
       </c>
       <c r="AB2" t="n">
-        <v>921.1933654287311</v>
+        <v>1114.07061334687</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.2759635352209</v>
+        <v>1007.74527761697</v>
       </c>
       <c r="AD2" t="n">
-        <v>673266.8199042019</v>
+        <v>814233.8049163905</v>
       </c>
       <c r="AE2" t="n">
-        <v>921193.3654287311</v>
+        <v>1114070.61334687</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84864779863942e-07</v>
+        <v>1.455020321063539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.55208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>833275.9635352208</v>
+        <v>1007745.27761697</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.7013078680155</v>
+        <v>639.6914546165201</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.5512334961194</v>
+        <v>875.2540694015491</v>
       </c>
       <c r="AC3" t="n">
-        <v>648.1645894572216</v>
+        <v>791.7210494446662</v>
       </c>
       <c r="AD3" t="n">
-        <v>523701.3078680155</v>
+        <v>639691.4546165201</v>
       </c>
       <c r="AE3" t="n">
-        <v>716551.2334961194</v>
+        <v>875254.0694015492</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178199024346282e-06</v>
+        <v>1.740648622766169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>648164.5894572216</v>
+        <v>791721.0494446661</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.1207973262574</v>
+        <v>577.984340636133</v>
       </c>
       <c r="AB4" t="n">
-        <v>643.2400151675899</v>
+        <v>790.8236737278471</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.8500909130257</v>
+        <v>715.3485722352575</v>
       </c>
       <c r="AD4" t="n">
-        <v>470120.7973262575</v>
+        <v>577984.340636133</v>
       </c>
       <c r="AE4" t="n">
-        <v>643240.01516759</v>
+        <v>790823.6737278471</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249422247227654e-06</v>
+        <v>1.845872445104855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>581850.0909130258</v>
+        <v>715348.5722352575</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.1388990880716</v>
+        <v>544.9171015433756</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.1127269394467</v>
+        <v>745.579618377506</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.0296877368297</v>
+        <v>674.4225460271227</v>
       </c>
       <c r="AD5" t="n">
-        <v>437138.8990880717</v>
+        <v>544917.1015433755</v>
       </c>
       <c r="AE5" t="n">
-        <v>598112.7269394468</v>
+        <v>745579.618377506</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28563702802907e-06</v>
+        <v>1.899375467109766e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.93489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>541029.6877368297</v>
+        <v>674422.5460271228</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.4243449868616</v>
+        <v>542.2025474421654</v>
       </c>
       <c r="AB6" t="n">
-        <v>594.3985542604963</v>
+        <v>741.8654456985557</v>
       </c>
       <c r="AC6" t="n">
-        <v>537.6699904854843</v>
+        <v>671.0628487757773</v>
       </c>
       <c r="AD6" t="n">
-        <v>434424.3449868616</v>
+        <v>542202.5474421654</v>
       </c>
       <c r="AE6" t="n">
-        <v>594398.5542604963</v>
+        <v>741865.4456985557</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290733193648304e-06</v>
+        <v>1.906904444373544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.83072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>537669.9904854842</v>
+        <v>671062.8487757773</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.1251548241728</v>
+        <v>1007.919895742435</v>
       </c>
       <c r="AB2" t="n">
-        <v>1157.705765237758</v>
+        <v>1379.080467642327</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.215951853712</v>
+        <v>1247.462963362136</v>
       </c>
       <c r="AD2" t="n">
-        <v>846125.1548241728</v>
+        <v>1007919.895742435</v>
       </c>
       <c r="AE2" t="n">
-        <v>1157705.765237758</v>
+        <v>1379080.467642327</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.494782379353279e-07</v>
+        <v>1.233585976580645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047215.951853712</v>
+        <v>1247462.963362136</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>624.1733658115342</v>
+        <v>743.5792150899782</v>
       </c>
       <c r="AB3" t="n">
-        <v>854.0215356888068</v>
+        <v>1017.39788648586</v>
       </c>
       <c r="AC3" t="n">
-        <v>772.5149189494198</v>
+        <v>920.2988601265511</v>
       </c>
       <c r="AD3" t="n">
-        <v>624173.3658115341</v>
+        <v>743579.2150899782</v>
       </c>
       <c r="AE3" t="n">
-        <v>854021.5356888068</v>
+        <v>1017397.88648586</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064202384933196e-06</v>
+        <v>1.545401729758276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>772514.9189494197</v>
+        <v>920298.860126551</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.667227039608</v>
+        <v>669.9876459549295</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.4471937590846</v>
+        <v>916.7066549643921</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.5392510564948</v>
+        <v>829.2174584204607</v>
       </c>
       <c r="AD4" t="n">
-        <v>550667.2270396079</v>
+        <v>669987.6459549294</v>
       </c>
       <c r="AE4" t="n">
-        <v>753447.1937590846</v>
+        <v>916706.6549643921</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147615278629417e-06</v>
+        <v>1.666531349487869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>681539.2510564948</v>
+        <v>829217.4584204607</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.2446296946689</v>
+        <v>636.4797077554186</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.7169215708091</v>
+        <v>870.8596156539188</v>
       </c>
       <c r="AC5" t="n">
-        <v>640.173411863028</v>
+        <v>787.7459961950553</v>
       </c>
       <c r="AD5" t="n">
-        <v>517244.6296946689</v>
+        <v>636479.7077554186</v>
       </c>
       <c r="AE5" t="n">
-        <v>707716.9215708091</v>
+        <v>870859.6156539188</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.188515116152821e-06</v>
+        <v>1.725924826283608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>640173.4118630281</v>
+        <v>787745.9961950553</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>495.2322442740615</v>
+        <v>605.9384290026557</v>
       </c>
       <c r="AB6" t="n">
-        <v>677.5986047204274</v>
+        <v>829.0716906782637</v>
       </c>
       <c r="AC6" t="n">
-        <v>612.9295449015237</v>
+        <v>749.9462521293556</v>
       </c>
       <c r="AD6" t="n">
-        <v>495232.2442740615</v>
+        <v>605938.4290026557</v>
       </c>
       <c r="AE6" t="n">
-        <v>677598.6047204274</v>
+        <v>829071.6906782638</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.220067775031084e-06</v>
+        <v>1.771744619867328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>612929.5449015237</v>
+        <v>749946.2521293556</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.0127088381081</v>
+        <v>580.8041449127228</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.0921237295763</v>
+        <v>794.6818543400622</v>
       </c>
       <c r="AC7" t="n">
-        <v>581.7163140262893</v>
+        <v>718.8385335048334</v>
       </c>
       <c r="AD7" t="n">
-        <v>470012.7088381081</v>
+        <v>580804.1449127228</v>
       </c>
       <c r="AE7" t="n">
-        <v>643092.1237295764</v>
+        <v>794681.8543400621</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.236698161402259e-06</v>
+        <v>1.795894751673484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>581716.3140262893</v>
+        <v>718838.5335048335</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>469.1215796955684</v>
+        <v>579.9130157701832</v>
       </c>
       <c r="AB8" t="n">
-        <v>641.8728415229107</v>
+        <v>793.4625721333963</v>
       </c>
       <c r="AC8" t="n">
-        <v>580.6133984021543</v>
+        <v>717.7356178806986</v>
       </c>
       <c r="AD8" t="n">
-        <v>469121.5796955684</v>
+        <v>579913.0157701832</v>
       </c>
       <c r="AE8" t="n">
-        <v>641872.8415229106</v>
+        <v>793462.5721333963</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239568741646071e-06</v>
+        <v>1.800063319360424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>580613.3984021543</v>
+        <v>717735.6178806985</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.3822605304828</v>
+        <v>443.9466278838072</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.6212931126641</v>
+        <v>607.4273618135699</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.5648047875447</v>
+        <v>549.4553469317387</v>
       </c>
       <c r="AD2" t="n">
-        <v>337382.2605304827</v>
+        <v>443946.6278838072</v>
       </c>
       <c r="AE2" t="n">
-        <v>461621.2931126641</v>
+        <v>607427.3618135699</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.347227030114053e-06</v>
+        <v>2.245747192704587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.46614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>417564.8047875448</v>
+        <v>549455.3469317388</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.4943533079992</v>
+        <v>609.3765348900735</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.1160132796634</v>
+        <v>833.7758588319556</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.0656428894921</v>
+        <v>754.2014610768006</v>
       </c>
       <c r="AD2" t="n">
-        <v>490494.3533079992</v>
+        <v>609376.5348900735</v>
       </c>
       <c r="AE2" t="n">
-        <v>671116.0132796634</v>
+        <v>833775.8588319556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196529889078273e-06</v>
+        <v>1.821006761276326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>607065.6428894921</v>
+        <v>754201.4610768006</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.614165956955</v>
+        <v>504.6966064419692</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.5062198288375</v>
+        <v>690.548162576749</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.0621174451959</v>
+        <v>624.6432151308567</v>
       </c>
       <c r="AD3" t="n">
-        <v>401614.1659569551</v>
+        <v>504696.6064419692</v>
       </c>
       <c r="AE3" t="n">
-        <v>549506.2198288376</v>
+        <v>690548.162576749</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.35395084293124e-06</v>
+        <v>2.060586753342924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>497062.1174451959</v>
+        <v>624643.2151308567</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.9322250420377</v>
+        <v>492.0999168730724</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.1542287813011</v>
+        <v>673.312816181862</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.3661760695639</v>
+        <v>609.052786005937</v>
       </c>
       <c r="AD4" t="n">
-        <v>388932.2250420377</v>
+        <v>492099.9168730724</v>
       </c>
       <c r="AE4" t="n">
-        <v>532154.2287813011</v>
+        <v>673312.816181862</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363487548019428e-06</v>
+        <v>2.075100727966045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>481366.1760695639</v>
+        <v>609052.786005937</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.9237544531208</v>
+        <v>726.497952047048</v>
       </c>
       <c r="AB2" t="n">
-        <v>815.3691711433306</v>
+        <v>994.0265488183823</v>
       </c>
       <c r="AC2" t="n">
-        <v>737.5514818272295</v>
+        <v>899.1580501241787</v>
       </c>
       <c r="AD2" t="n">
-        <v>595923.7544531208</v>
+        <v>726497.952047048</v>
       </c>
       <c r="AE2" t="n">
-        <v>815369.1711433306</v>
+        <v>994026.5488183822</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059957384505994e-06</v>
+        <v>1.582421714535901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>737551.4818272295</v>
+        <v>899158.0501241786</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.79013582457</v>
+        <v>580.8657594679547</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.6288100976572</v>
+        <v>794.7661580927728</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.6291482216973</v>
+        <v>718.9147914257065</v>
       </c>
       <c r="AD3" t="n">
-        <v>474790.13582457</v>
+        <v>580865.7594679547</v>
       </c>
       <c r="AE3" t="n">
-        <v>649628.8100976571</v>
+        <v>794766.1580927728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.24130427991381e-06</v>
+        <v>1.8531564340178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.39322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587629.1482216973</v>
+        <v>718914.7914257066</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.4115671987826</v>
+        <v>530.4063105437078</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.6445828933576</v>
+        <v>725.7253139608428</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.1788542804021</v>
+        <v>656.4631085582945</v>
       </c>
       <c r="AD4" t="n">
-        <v>432411.5671987826</v>
+        <v>530406.3105437078</v>
       </c>
       <c r="AE4" t="n">
-        <v>591644.5828933575</v>
+        <v>725725.3139608428</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306256101795205e-06</v>
+        <v>1.950123703500706e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>535178.8542804021</v>
+        <v>656463.1085582945</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.3325173055013</v>
+        <v>522.4080514403352</v>
       </c>
       <c r="AB5" t="n">
-        <v>569.6445174717528</v>
+        <v>714.7817429973202</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.2784442253496</v>
+        <v>646.5639766481321</v>
       </c>
       <c r="AD5" t="n">
-        <v>416332.5173055013</v>
+        <v>522408.0514403351</v>
       </c>
       <c r="AE5" t="n">
-        <v>569644.5174717528</v>
+        <v>714781.7429973201</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319362182043155e-06</v>
+        <v>1.969689910859572e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.83072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>515278.4442253496</v>
+        <v>646563.9766481321</v>
       </c>
     </row>
   </sheetData>
